--- a/防火墙白名单/CHN/CHN防火墙白名单.xlsx
+++ b/防火墙白名单/CHN/CHN防火墙白名单.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9060" activeTab="2"/>
+    <workbookView windowWidth="22188" windowHeight="9060" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="背景" sheetId="2" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="68">
   <si>
     <t>理论上，防火墙应在E11 GW，但由于一些原因，GW没有实现防火墙，改为由各个零部件实现</t>
   </si>
@@ -205,9 +205,6 @@
   </si>
   <si>
     <t>ADR</t>
-  </si>
-  <si>
-    <t>172.16.72.41</t>
   </si>
   <si>
     <t>TCP</t>
@@ -220,9 +217,6 @@
     <t>edc_agent</t>
   </si>
   <si>
-    <t>172.16.65.41</t>
-  </si>
-  <si>
     <t>标定文件传输
 和AVATR开发李正龙确认CDC使用的是192.168.65.6</t>
   </si>
@@ -246,9 +240,6 @@
   </si>
   <si>
     <t>OTA</t>
-  </si>
-  <si>
-    <t>172.16.69.41</t>
   </si>
   <si>
     <t>OTA指令</t>
@@ -1446,9 +1437,9 @@
   <dimension ref="A1:W174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C27" sqref="C27"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="14.4"/>
@@ -2115,18 +2106,18 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F23" s="6">
         <v>80</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -2147,14 +2138,14 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="6" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="F24" s="6">
         <v>443</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -2198,22 +2189,22 @@
     </row>
     <row r="26" s="3" customFormat="1" spans="2:23">
       <c r="B26" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="6" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G26" s="6">
         <v>80</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
@@ -2234,13 +2225,13 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="6" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G27" s="6">
         <v>443</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="6"/>
@@ -2263,7 +2254,7 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="6" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="G28" s="6">
         <v>51002</v>
@@ -2273,7 +2264,7 @@
       </c>
       <c r="I28" s="6"/>
       <c r="J28" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
@@ -2314,12 +2305,12 @@
     </row>
     <row r="30" s="3" customFormat="1" spans="2:23">
       <c r="B30" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G30" s="6">
         <v>13400</v>
@@ -2329,7 +2320,7 @@
       </c>
       <c r="I30" s="6"/>
       <c r="J30" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
@@ -2350,7 +2341,7 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G31" s="6">
         <v>13400</v>
@@ -2385,11 +2376,11 @@
         <v>13400</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I32" s="6"/>
       <c r="J32" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
@@ -2430,22 +2421,22 @@
     </row>
     <row r="34" s="3" customFormat="1" spans="2:23">
       <c r="B34" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="6" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="G34" s="6">
         <v>13402</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I34" s="6"/>
       <c r="J34" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
@@ -2487,7 +2478,7 @@
     </row>
     <row r="36" s="3" customFormat="1" spans="2:23">
       <c r="B36" s="6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C36" s="2"/>
       <c r="F36" s="6"/>
@@ -2495,7 +2486,7 @@
         <v>5037</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6"/>
@@ -2537,7 +2528,7 @@
     </row>
     <row r="38" s="3" customFormat="1" ht="172.75" spans="2:23">
       <c r="B38" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C38" s="2"/>
       <c r="E38" s="6" t="s">
@@ -2548,7 +2539,7 @@
         <v>12406</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I38" s="6"/>
       <c r="J38" s="6" t="str">
@@ -2593,7 +2584,7 @@
     </row>
     <row r="40" s="3" customFormat="1" spans="2:23">
       <c r="B40" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
@@ -2605,7 +2596,7 @@
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I40" s="6"/>
       <c r="J40" s="6"/>
@@ -2679,7 +2670,7 @@
     </row>
     <row r="43" s="3" customFormat="1" spans="2:23">
       <c r="B43" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -2689,7 +2680,7 @@
         <v>22</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I43" s="6"/>
       <c r="J43" s="8" t="s">
@@ -2735,7 +2726,7 @@
     </row>
     <row r="45" s="3" customFormat="1" spans="2:23">
       <c r="B45" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -2789,7 +2780,7 @@
     </row>
     <row r="47" s="3" customFormat="1" spans="2:23">
       <c r="B47" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -2801,7 +2792,7 @@
         <v>6680</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="8" t="s">
@@ -2833,7 +2824,7 @@
         <v>1933</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="8"/>
@@ -2863,7 +2854,7 @@
         <v>1111</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="8"/>
@@ -5922,7 +5913,7 @@
   <sheetData>
     <row r="1" ht="100" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
